--- a/GATEWAY/A1#111OLYMPUSITALIASRLXX/Olympus_srl/Endobase/14.9/accreditamento-checklist.xlsx
+++ b/GATEWAY/A1#111OLYMPUSITALIASRLXX/Olympus_srl/Endobase/14.9/accreditamento-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://olympusssaemea-my.sharepoint.com/personal/ciro_chiappetti_olympus_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{192428B8-06AF-4955-BD70-03802BCDCE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AC2BE23-B674-417D-BD88-8EEB63EDBF29}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{192428B8-06AF-4955-BD70-03802BCDCE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E064B4F9-054C-4857-A34A-5D81E960D196}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -1112,7 +1112,7 @@
 Sarà possibile correggere l'errore e procedere nuovamente alla produzione e validazione del documento manualmente in back office.</t>
   </si>
   <si>
-    <t xml:space="preserve">L'applicativo eseguirà alcuni tentativi d'invio dopodiché viene generato un log che riporta i dettagli sull'errore . In backoffice si vanno a verificare le cause dell'errore. Se il problema è risolvibile da back office viene corretto ed effettuata manualmente l'operazione di retry dall'operatore. In caso contrario, il cliente apre una segnalazione al service desk che provvederà alla risoluzione dell'errore permettendo la corretta comunicazione con il gateway e successiva validazione ed esportazione del documento. </t>
+    <t>L'applicativo eseguirà alcuni tentativi d'invio dopodiché viene generato un log che riporta i dettagli sull'errore . In backoffice si vanno a verificare le cause dell'errore. Se il problema è risolvibile da backoffice si può rieseguire la ritrasmissione  attraverso un'operazione di retry eseguita manualmente.</t>
   </si>
 </sst>
 </file>
@@ -4142,7 +4142,7 @@
   <dimension ref="A1:T633"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="M11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
@@ -4513,7 +4513,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="116.5" thickBot="1">
+    <row r="12" spans="1:20" ht="73" thickBot="1">
       <c r="A12" s="20">
         <v>48</v>
       </c>
